--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Epha7.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H2">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N2">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O2">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P2">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q2">
-        <v>0.01977396869755556</v>
+        <v>0.02337920500444444</v>
       </c>
       <c r="R2">
-        <v>0.177965718278</v>
+        <v>0.21041284504</v>
       </c>
       <c r="S2">
-        <v>0.00706531344422445</v>
+        <v>0.009861136437835342</v>
       </c>
       <c r="T2">
-        <v>0.007065313444224451</v>
+        <v>0.00986113643783534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H3">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.136667</v>
       </c>
       <c r="O3">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P3">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q3">
-        <v>0.004261018911222223</v>
+        <v>0.007874327353777778</v>
       </c>
       <c r="R3">
-        <v>0.03834917020100001</v>
+        <v>0.07086894618400001</v>
       </c>
       <c r="S3">
-        <v>0.001522478095319055</v>
+        <v>0.003321319795819412</v>
       </c>
       <c r="T3">
-        <v>0.001522478095319055</v>
+        <v>0.003321319795819412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H4">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N4">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O4">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P4">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q4">
-        <v>0.1070843716003334</v>
+        <v>0.1631738525608889</v>
       </c>
       <c r="R4">
-        <v>0.9637593444030003</v>
+        <v>1.468564673048</v>
       </c>
       <c r="S4">
-        <v>0.03826164903496031</v>
+        <v>0.06882524974156576</v>
       </c>
       <c r="T4">
-        <v>0.03826164903496032</v>
+        <v>0.06882524974156576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H5">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I5">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J5">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N5">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O5">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P5">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q5">
-        <v>0.0008020880864444444</v>
+        <v>0.004842757128000001</v>
       </c>
       <c r="R5">
-        <v>0.007218792778000001</v>
+        <v>0.043584814152</v>
       </c>
       <c r="S5">
-        <v>0.0002865890923205895</v>
+        <v>0.002042630994742091</v>
       </c>
       <c r="T5">
-        <v>0.0002865890923205896</v>
+        <v>0.002042630994742091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.103153</v>
       </c>
       <c r="I6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N6">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O6">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P6">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q6">
-        <v>0.2891473682864444</v>
+        <v>0.1849929325344444</v>
       </c>
       <c r="R6">
-        <v>2.602326314578</v>
+        <v>1.66493639281</v>
       </c>
       <c r="S6">
-        <v>0.1033134430302238</v>
+        <v>0.07802833960396141</v>
       </c>
       <c r="T6">
-        <v>0.1033134430302238</v>
+        <v>0.0780283396039614</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.103153</v>
       </c>
       <c r="I7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.136667</v>
       </c>
       <c r="O7">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P7">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q7">
         <v>0.06230729011677778</v>
@@ -883,10 +883,10 @@
         <v>0.560765611051</v>
       </c>
       <c r="S7">
-        <v>0.02226262928137855</v>
+        <v>0.02628064935469501</v>
       </c>
       <c r="T7">
-        <v>0.02226262928137855</v>
+        <v>0.02628064935469501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>4.103153</v>
       </c>
       <c r="I8">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J8">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N8">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O8">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P8">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q8">
-        <v>1.565854821883667</v>
+        <v>1.291147816721889</v>
       </c>
       <c r="R8">
-        <v>14.092693396953</v>
+        <v>11.620330350497</v>
       </c>
       <c r="S8">
-        <v>0.5594858216866694</v>
+        <v>0.5445944282402821</v>
       </c>
       <c r="T8">
-        <v>0.5594858216866695</v>
+        <v>0.544594428240282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>4.103153</v>
       </c>
       <c r="I9">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J9">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N9">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O9">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P9">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q9">
-        <v>0.01172863489755555</v>
+        <v>0.038319345867</v>
       </c>
       <c r="R9">
-        <v>0.105557714078</v>
+        <v>0.344874112803</v>
       </c>
       <c r="S9">
-        <v>0.004190685395104484</v>
+        <v>0.01616275222922483</v>
       </c>
       <c r="T9">
-        <v>0.004190685395104485</v>
+        <v>0.01616275222922483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H10">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I10">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J10">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N10">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O10">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P10">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q10">
-        <v>0.1105872393073333</v>
+        <v>0.06978504596888889</v>
       </c>
       <c r="R10">
-        <v>0.9952851537659999</v>
+        <v>0.6280654137199999</v>
       </c>
       <c r="S10">
-        <v>0.03951323685135379</v>
+        <v>0.02943469889113012</v>
       </c>
       <c r="T10">
-        <v>0.0395132368513538</v>
+        <v>0.02943469889113011</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H11">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I11">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J11">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.136667</v>
       </c>
       <c r="O11">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P11">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q11">
-        <v>0.02383003256633334</v>
+        <v>0.02350423362355556</v>
       </c>
       <c r="R11">
-        <v>0.214470293097</v>
+        <v>0.211538102612</v>
       </c>
       <c r="S11">
-        <v>0.008514560331433857</v>
+        <v>0.009913872374384699</v>
       </c>
       <c r="T11">
-        <v>0.008514560331433859</v>
+        <v>0.009913872374384699</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H12">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I12">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J12">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N12">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O12">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P12">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q12">
-        <v>0.598876493099</v>
+        <v>0.4870608217737777</v>
       </c>
       <c r="R12">
-        <v>5.389888437891</v>
+        <v>4.383547395963999</v>
       </c>
       <c r="S12">
-        <v>0.2139808251363025</v>
+        <v>0.2054378331565324</v>
       </c>
       <c r="T12">
-        <v>0.2139808251363026</v>
+        <v>0.2054378331565324</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H13">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I13">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J13">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N13">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O13">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P13">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q13">
-        <v>0.004485731140666666</v>
+        <v>0.014455240404</v>
       </c>
       <c r="R13">
-        <v>0.040371580266</v>
+        <v>0.130097163636</v>
       </c>
       <c r="S13">
-        <v>0.001602768620709223</v>
+        <v>0.006097089179826941</v>
       </c>
       <c r="T13">
-        <v>0.001602768620709223</v>
+        <v>0.00609708917982694</v>
       </c>
     </row>
   </sheetData>
